--- a/Task2/Results/GroupByPropertyID/VM.xlsx
+++ b/Task2/Results/GroupByPropertyID/VM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="97">
   <si>
     <t>Property_id</t>
   </si>
@@ -666,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L187"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,7 +709,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -727,16 +727,16 @@
         <v>6</v>
       </c>
       <c r="G2">
-        <v>128809</v>
+        <v>58613</v>
       </c>
       <c r="H2">
-        <v>21468.16666666667</v>
+        <v>9768.833333333334</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="G3">
-        <v>128809</v>
+        <v>58613</v>
       </c>
       <c r="H3">
-        <v>21468.16666666667</v>
+        <v>9768.833333333334</v>
       </c>
       <c r="I3">
         <v>52</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -803,10 +803,10 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>128809</v>
+        <v>58613</v>
       </c>
       <c r="H4">
-        <v>21468.16666666667</v>
+        <v>9768.833333333334</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -838,16 +838,16 @@
         <v>17</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>92064</v>
+        <v>46032</v>
       </c>
       <c r="H5">
-        <v>46032</v>
+        <v>11508</v>
       </c>
       <c r="I5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -876,19 +876,19 @@
         <v>17</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>92064</v>
+        <v>46032</v>
       </c>
       <c r="H6">
-        <v>46032</v>
+        <v>11508</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>518</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -914,19 +914,19 @@
         <v>18</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>63530</v>
+        <v>41250</v>
       </c>
       <c r="H7">
-        <v>31765</v>
+        <v>10312.5</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>705</v>
+        <v>632</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -952,19 +952,19 @@
         <v>19</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>37400</v>
+        <v>18700</v>
       </c>
       <c r="H8">
-        <v>37400</v>
+        <v>9350</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>869</v>
+        <v>775</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -990,16 +990,16 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>79925</v>
+        <v>47050</v>
       </c>
       <c r="H9">
-        <v>26641.66666666667</v>
+        <v>11762.5</v>
       </c>
       <c r="I9">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>878</v>
+        <v>781</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1028,19 +1028,19 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>79925</v>
+        <v>47050</v>
       </c>
       <c r="H10">
-        <v>26641.66666666667</v>
+        <v>11762.5</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1051,34 +1051,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>885</v>
+        <v>941</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>42364</v>
+        <v>42020</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>79925</v>
+        <v>22280</v>
       </c>
       <c r="H11">
-        <v>79925</v>
+        <v>11140</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1089,34 +1089,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>1060</v>
+        <v>1192</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>42020</v>
+        <v>42017</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>44560</v>
+        <v>39690</v>
       </c>
       <c r="H12">
-        <v>44560</v>
+        <v>9922.5</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1127,34 +1127,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>1326</v>
+        <v>1342</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>42017</v>
+        <v>42018</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>90520</v>
+        <v>42662</v>
       </c>
       <c r="H13">
-        <v>22630</v>
+        <v>10665.5</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1165,34 +1165,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>42017</v>
+        <v>42018</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>90520</v>
+        <v>42662</v>
       </c>
       <c r="H14">
-        <v>90520</v>
+        <v>10665.5</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J14">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1203,34 +1203,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>1492</v>
+        <v>1745</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>42018</v>
+        <v>42304</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>83842</v>
+        <v>15000</v>
       </c>
       <c r="H15">
-        <v>20960.5</v>
+        <v>7500</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1241,34 +1241,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>1607</v>
+        <v>1746</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>42018</v>
+        <v>42304</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>83842</v>
+        <v>15000</v>
       </c>
       <c r="H16">
-        <v>20960.5</v>
+        <v>7500</v>
       </c>
       <c r="I16">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1279,34 +1279,34 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>1626</v>
+        <v>1817</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>42018</v>
+        <v>42295</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>83842</v>
+        <v>21225</v>
       </c>
       <c r="H17">
-        <v>83842</v>
+        <v>10612.5</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1317,37 +1317,37 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>1943</v>
+        <v>1851</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>42304</v>
+        <v>42295</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
-        <v>15000</v>
+        <v>21225</v>
       </c>
       <c r="H18">
-        <v>7500</v>
+        <v>10612.5</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1355,37 +1355,37 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>1944</v>
+        <v>1863</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>42304</v>
+        <v>42025</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>15000</v>
+        <v>73769.33</v>
       </c>
       <c r="H19">
-        <v>7500</v>
+        <v>9221.16625</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1393,34 +1393,34 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>2023</v>
+        <v>1888</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>42295</v>
+        <v>42025</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>51450</v>
+        <v>73769.33</v>
       </c>
       <c r="H20">
-        <v>17150</v>
+        <v>9221.16625</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1431,28 +1431,28 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>2063</v>
+        <v>1972</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2">
-        <v>42295</v>
+        <v>42025</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>51450</v>
+        <v>73769.33</v>
       </c>
       <c r="H21">
-        <v>17150</v>
+        <v>9221.16625</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1461,45 +1461,45 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>2077</v>
+        <v>2009</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2">
-        <v>42025</v>
+        <v>42086</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>6</v>
-      </c>
-      <c r="G22">
-        <v>185568.99</v>
-      </c>
-      <c r="H22">
-        <v>30928.165</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1507,34 +1507,34 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>2102</v>
+        <v>2117</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2">
-        <v>42025</v>
+        <v>42110</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>185568.99</v>
+        <v>11140</v>
       </c>
       <c r="H23">
-        <v>92784.495</v>
+        <v>11140</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1545,34 +1545,34 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>2129</v>
+        <v>2299</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>42025</v>
+        <v>42027</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>6</v>
       </c>
       <c r="G24">
-        <v>185568.99</v>
+        <v>54065</v>
       </c>
       <c r="H24">
-        <v>30928.165</v>
+        <v>9010.833333333334</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1583,31 +1583,31 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>2192</v>
+        <v>2366</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2">
-        <v>42025</v>
+        <v>42027</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F25">
         <v>6</v>
       </c>
       <c r="G25">
-        <v>185568.99</v>
+        <v>54065</v>
       </c>
       <c r="H25">
-        <v>30928.165</v>
+        <v>9010.833333333334</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1616,42 +1616,42 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>2238</v>
+        <v>2586</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2">
-        <v>42086</v>
+        <v>42028</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>82110</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>10263.75</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="K26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1659,34 +1659,34 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>2361</v>
+        <v>2587</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>42110</v>
+        <v>42028</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>11140</v>
+        <v>82110</v>
       </c>
       <c r="H27">
-        <v>11140</v>
+        <v>10263.75</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1697,37 +1697,37 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>2558</v>
+        <v>2654</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2">
-        <v>42027</v>
+        <v>42028</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>73980</v>
+        <v>82110</v>
       </c>
       <c r="H28">
-        <v>18495</v>
+        <v>10263.75</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1735,37 +1735,37 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>2560</v>
+        <v>2655</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>42027</v>
+        <v>42028</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>73980</v>
+        <v>82110</v>
       </c>
       <c r="H29">
-        <v>36990</v>
+        <v>10263.75</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -1773,34 +1773,34 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>2632</v>
+        <v>2919</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>42027</v>
+        <v>42029</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>73980</v>
+        <v>11140</v>
       </c>
       <c r="H30">
-        <v>18495</v>
+        <v>11140</v>
       </c>
       <c r="I30">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1811,34 +1811,34 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>2876</v>
+        <v>3017</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <v>42028</v>
+        <v>42095</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>99660</v>
+        <v>9650</v>
       </c>
       <c r="H31">
-        <v>16610</v>
+        <v>9650</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>244</v>
+        <v>56</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1849,34 +1849,34 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>2877</v>
+        <v>3130</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>42028</v>
+        <v>42096</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>99660</v>
+        <v>44951</v>
       </c>
       <c r="H32">
-        <v>16610</v>
+        <v>8990.200000000001</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1887,37 +1887,37 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1">
-        <v>2956</v>
+        <v>3152</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>42028</v>
+        <v>42038</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>99660</v>
+        <v>60153</v>
       </c>
       <c r="H33">
-        <v>16610</v>
+        <v>12030.6</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="K33">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -1925,37 +1925,37 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1">
-        <v>2957</v>
+        <v>3329</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="2">
-        <v>42028</v>
+        <v>42062</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>99660</v>
+        <v>34865</v>
       </c>
       <c r="H34">
-        <v>16610</v>
+        <v>8716.25</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K34">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -1963,34 +1963,34 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
-        <v>3068</v>
+        <v>3548</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="2">
-        <v>42028</v>
+        <v>42081</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>99660</v>
+        <v>11140</v>
       </c>
       <c r="H35">
-        <v>49830</v>
+        <v>11140</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>244</v>
+        <v>66</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2001,34 +2001,34 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1">
-        <v>3069</v>
+        <v>3587</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="2">
-        <v>42028</v>
+        <v>42084</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36">
-        <v>99660</v>
+        <v>8775</v>
       </c>
       <c r="H36">
-        <v>49830</v>
+        <v>4387.5</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2039,37 +2039,37 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1">
-        <v>3261</v>
+        <v>3617</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="2">
-        <v>42029</v>
+        <v>42084</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>22280</v>
+        <v>8775</v>
       </c>
       <c r="H37">
-        <v>22280</v>
+        <v>4387.5</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2077,34 +2077,34 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1">
-        <v>3374</v>
+        <v>3883</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="2">
-        <v>42095</v>
+        <v>42097</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G38">
-        <v>9650</v>
+        <v>54451</v>
       </c>
       <c r="H38">
-        <v>9650</v>
+        <v>9075.166666666666</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2115,34 +2115,34 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1">
-        <v>3510</v>
+        <v>3941</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="2">
-        <v>42096</v>
+        <v>42099</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>99928</v>
+        <v>11140</v>
       </c>
       <c r="H39">
-        <v>24982</v>
+        <v>5570</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2153,34 +2153,34 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1">
-        <v>3512</v>
+        <v>3948</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="2">
-        <v>42096</v>
+        <v>42099</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>99928</v>
+        <v>11140</v>
       </c>
       <c r="H40">
-        <v>99928</v>
+        <v>5570</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J40">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2191,34 +2191,34 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1">
-        <v>3532</v>
+        <v>4122</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="2">
-        <v>42038</v>
+        <v>42308</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>144759</v>
+        <v>25131</v>
       </c>
       <c r="H41">
-        <v>28951.8</v>
+        <v>12565.5</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2229,72 +2229,72 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1">
-        <v>3581</v>
+        <v>4172</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="2">
-        <v>42038</v>
+        <v>42308</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>144759</v>
+        <v>25131</v>
       </c>
       <c r="H42">
-        <v>144759</v>
+        <v>12565.5</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1">
-        <v>3726</v>
+        <v>4220</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="2">
-        <v>42062</v>
+        <v>42252</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>69730</v>
+        <v>6600</v>
       </c>
       <c r="H43">
-        <v>23243.33333333333</v>
+        <v>6600</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J43">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2305,34 +2305,34 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1">
-        <v>3853</v>
+        <v>4422</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="2">
-        <v>42062</v>
+        <v>42318</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G44">
-        <v>69730</v>
+        <v>65000</v>
       </c>
       <c r="H44">
-        <v>69730</v>
+        <v>10833.33333333333</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2343,34 +2343,34 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1">
-        <v>3976</v>
+        <v>4423</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="2">
-        <v>42081</v>
+        <v>42318</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>22280</v>
+        <v>65000</v>
       </c>
       <c r="H45">
-        <v>22280</v>
+        <v>10833.33333333333</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2381,34 +2381,34 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1">
-        <v>4017</v>
+        <v>4746</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="2">
-        <v>42084</v>
+        <v>42319</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>8775</v>
+        <v>42000</v>
       </c>
       <c r="H46">
-        <v>4387.5</v>
+        <v>10500</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2419,37 +2419,37 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1">
-        <v>4047</v>
+        <v>4747</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="2">
-        <v>42084</v>
+        <v>42319</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47">
-        <v>8775</v>
+        <v>42000</v>
       </c>
       <c r="H47">
-        <v>4387.5</v>
+        <v>10500</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="K47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2457,34 +2457,34 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1">
-        <v>4357</v>
+        <v>4996</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="2">
-        <v>42097</v>
+        <v>42320</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G48">
-        <v>109428</v>
+        <v>67940</v>
       </c>
       <c r="H48">
-        <v>21885.6</v>
+        <v>11323.33333333333</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2495,34 +2495,34 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>4362</v>
+        <v>4997</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="2">
-        <v>42097</v>
+        <v>42320</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>109428</v>
+        <v>67940</v>
       </c>
       <c r="H49">
-        <v>109428</v>
+        <v>11323.33333333333</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2533,28 +2533,28 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>4425</v>
+        <v>5189</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="2">
-        <v>42099</v>
+        <v>42325</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>11140</v>
+        <v>10595</v>
       </c>
       <c r="H50">
-        <v>5570</v>
+        <v>10595</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2571,34 +2571,34 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>4433</v>
+        <v>5326</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="2">
-        <v>42099</v>
+        <v>42333</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G51">
-        <v>11140</v>
+        <v>96810</v>
       </c>
       <c r="H51">
-        <v>5570</v>
+        <v>12101.25</v>
       </c>
       <c r="I51">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -2609,34 +2609,34 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
-        <v>4622</v>
+        <v>5327</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="2">
-        <v>42308</v>
+        <v>42333</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G52">
-        <v>25131</v>
+        <v>96810</v>
       </c>
       <c r="H52">
-        <v>25131</v>
+        <v>12101.25</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2647,75 +2647,75 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1">
-        <v>4683</v>
+        <v>5682</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="2">
-        <v>42308</v>
+        <v>42049</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G53">
-        <v>25131</v>
+        <v>83098</v>
       </c>
       <c r="H53">
-        <v>25131</v>
+        <v>11871.14285714286</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1">
-        <v>4736</v>
+        <v>5742</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="2">
-        <v>42252</v>
+        <v>42049</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G54">
-        <v>26400</v>
+        <v>83098</v>
       </c>
       <c r="H54">
-        <v>26400</v>
+        <v>11871.14285714286</v>
       </c>
       <c r="I54">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -2723,72 +2723,72 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
-        <v>4957</v>
+        <v>5762</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="2">
-        <v>42318</v>
+        <v>42049</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G55">
-        <v>130000</v>
+        <v>83098</v>
       </c>
       <c r="H55">
-        <v>21666.66666666667</v>
+        <v>11871.14285714286</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1">
-        <v>4958</v>
+        <v>5912</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="2">
-        <v>42318</v>
+        <v>42054</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G56">
-        <v>130000</v>
+        <v>124780</v>
       </c>
       <c r="H56">
-        <v>21666.66666666667</v>
+        <v>12478</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -2799,34 +2799,34 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1">
-        <v>5323</v>
+        <v>5913</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="2">
-        <v>42319</v>
+        <v>42054</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>108450</v>
+        <v>124780</v>
       </c>
       <c r="H57">
-        <v>18075</v>
+        <v>12478</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -2837,34 +2837,34 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1">
-        <v>5324</v>
+        <v>6176</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="2">
-        <v>42319</v>
+        <v>42007</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>108450</v>
+        <v>46500</v>
       </c>
       <c r="H58">
-        <v>18075</v>
+        <v>11625</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2875,34 +2875,34 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1">
-        <v>5597</v>
+        <v>6251</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="2">
-        <v>42320</v>
+        <v>42007</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F59">
         <v>4</v>
       </c>
       <c r="G59">
-        <v>92390</v>
+        <v>46500</v>
       </c>
       <c r="H59">
-        <v>23097.5</v>
+        <v>11625</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J59">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -2913,34 +2913,34 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1">
-        <v>5598</v>
+        <v>6323</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="2">
-        <v>42320</v>
+        <v>42009</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>92390</v>
+        <v>22905</v>
       </c>
       <c r="H60">
-        <v>23097.5</v>
+        <v>11452.5</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -2951,34 +2951,34 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1">
-        <v>5607</v>
+        <v>6484</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="2">
-        <v>42320</v>
+        <v>42008</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61">
-        <v>92390</v>
+        <v>42210</v>
       </c>
       <c r="H61">
-        <v>46195</v>
+        <v>10552.5</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -2989,34 +2989,34 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1">
-        <v>5608</v>
+        <v>6712</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="2">
-        <v>42320</v>
+        <v>42279</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>92390</v>
+        <v>12225</v>
       </c>
       <c r="H62">
-        <v>46195</v>
+        <v>12225</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3027,28 +3027,28 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1">
-        <v>5801</v>
+        <v>6768</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="2">
-        <v>42325</v>
+        <v>42016</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G63">
-        <v>21190</v>
+        <v>48670</v>
       </c>
       <c r="H63">
-        <v>21190</v>
+        <v>12167.5</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3065,34 +3065,34 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1">
-        <v>5948</v>
+        <v>6928</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="2">
-        <v>42333</v>
+        <v>42021</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>145760</v>
+        <v>20790</v>
       </c>
       <c r="H64">
-        <v>24293.33333333333</v>
+        <v>10395</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3103,34 +3103,34 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1">
-        <v>5949</v>
+        <v>7075</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="2">
-        <v>42333</v>
+        <v>42030</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G65">
-        <v>145760</v>
+        <v>43100</v>
       </c>
       <c r="H65">
-        <v>24293.33333333333</v>
+        <v>10775</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3141,34 +3141,34 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1">
-        <v>6144</v>
+        <v>7182</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="2">
-        <v>42333</v>
+        <v>42035</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>145760</v>
+        <v>57385</v>
       </c>
       <c r="H66">
-        <v>72880</v>
+        <v>11477</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3179,34 +3179,34 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1">
-        <v>6145</v>
+        <v>7275</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="2">
-        <v>42333</v>
+        <v>42035</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G67">
-        <v>145760</v>
+        <v>57385</v>
       </c>
       <c r="H67">
-        <v>72880</v>
+        <v>11477</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J67">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3217,34 +3217,34 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1">
-        <v>6340</v>
+        <v>7368</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="2">
-        <v>42049</v>
+        <v>42344</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>153194</v>
+        <v>12225</v>
       </c>
       <c r="H68">
-        <v>25532.33333333333</v>
+        <v>12225</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3255,37 +3255,37 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1">
-        <v>6411</v>
+        <v>7447</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="2">
-        <v>42049</v>
+        <v>42355</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>153194</v>
+        <v>16300</v>
       </c>
       <c r="H69">
-        <v>25532.33333333333</v>
+        <v>16300</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K69">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -3293,75 +3293,75 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1">
-        <v>6439</v>
+        <v>7551</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="2">
-        <v>42049</v>
+        <v>42362</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G70">
-        <v>153194</v>
+        <v>39500</v>
       </c>
       <c r="H70">
-        <v>25532.33333333333</v>
+        <v>13166.66666666667</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1">
-        <v>6479</v>
+        <v>7783</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="2">
-        <v>42049</v>
+        <v>42297</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G71">
-        <v>153194</v>
+        <v>26900</v>
       </c>
       <c r="H71">
-        <v>153194</v>
+        <v>4483.333333333333</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -3369,37 +3369,37 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1">
-        <v>6600</v>
+        <v>7784</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="2">
-        <v>42054</v>
+        <v>42297</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G72">
-        <v>223820</v>
+        <v>26900</v>
       </c>
       <c r="H72">
-        <v>27977.5</v>
+        <v>4483.333333333333</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -3407,34 +3407,34 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1">
-        <v>6601</v>
+        <v>7859</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="2">
-        <v>42054</v>
+        <v>42297</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G73">
-        <v>223820</v>
+        <v>26900</v>
       </c>
       <c r="H73">
-        <v>27977.5</v>
+        <v>4483.333333333333</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3445,34 +3445,34 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1">
-        <v>6820</v>
+        <v>7860</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="2">
-        <v>42054</v>
+        <v>42297</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G74">
-        <v>223820</v>
+        <v>26900</v>
       </c>
       <c r="H74">
-        <v>111910</v>
+        <v>4483.333333333333</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3483,34 +3483,34 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1">
-        <v>6821</v>
+        <v>7989</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="2">
-        <v>42054</v>
+        <v>42264</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G75">
-        <v>223820</v>
+        <v>30699</v>
       </c>
       <c r="H75">
-        <v>111910</v>
+        <v>5116.5</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3521,69 +3521,69 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1">
-        <v>6907</v>
+        <v>8017</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="2">
-        <v>42007</v>
+        <v>42264</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G76">
-        <v>85875</v>
+        <v>30699</v>
       </c>
       <c r="H76">
-        <v>42937.5</v>
+        <v>5116.5</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1">
-        <v>6991</v>
+        <v>8038</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="2">
-        <v>42007</v>
+        <v>42264</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G77">
-        <v>85875</v>
+        <v>30699</v>
       </c>
       <c r="H77">
-        <v>42937.5</v>
+        <v>5116.5</v>
       </c>
       <c r="I77">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -3597,34 +3597,34 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1">
-        <v>7075</v>
+        <v>8159</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="2">
-        <v>42009</v>
+        <v>42125</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G78">
-        <v>68715</v>
+        <v>59050</v>
       </c>
       <c r="H78">
-        <v>22905</v>
+        <v>5905</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J78">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3635,34 +3635,34 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1">
-        <v>7251</v>
+        <v>8160</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="2">
-        <v>42008</v>
+        <v>42125</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G79">
-        <v>94455</v>
+        <v>59050</v>
       </c>
       <c r="H79">
-        <v>47227.5</v>
+        <v>5905</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J79">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3673,110 +3673,110 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1">
-        <v>7499</v>
+        <v>8249</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="2">
-        <v>42279</v>
+        <v>42125</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G80">
-        <v>12225</v>
+        <v>59050</v>
       </c>
       <c r="H80">
-        <v>12225</v>
+        <v>5905</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1">
-        <v>7556</v>
+        <v>8250</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="2">
-        <v>42016</v>
+        <v>42125</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G81">
-        <v>79110</v>
+        <v>59050</v>
       </c>
       <c r="H81">
-        <v>19777.5</v>
+        <v>5905</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1">
-        <v>7650</v>
+        <v>8281</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="2">
-        <v>42016</v>
+        <v>42125</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G82">
-        <v>79110</v>
+        <v>59050</v>
       </c>
       <c r="H82">
-        <v>79110</v>
+        <v>5905</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -3787,34 +3787,34 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1">
-        <v>7732</v>
+        <v>8282</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="2">
-        <v>42021</v>
+        <v>42125</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G83">
-        <v>41580</v>
+        <v>59050</v>
       </c>
       <c r="H83">
-        <v>20790</v>
+        <v>5905</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -3825,34 +3825,34 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1">
-        <v>7894</v>
+        <v>8416</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="2">
-        <v>42030</v>
+        <v>42265</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>10825</v>
+      </c>
+      <c r="H84">
+        <v>3608.333333333333</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
         <v>58</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>54240</v>
-      </c>
-      <c r="H84">
-        <v>54240</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>121</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -3863,34 +3863,34 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1">
-        <v>7980</v>
+        <v>8451</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="2">
-        <v>42030</v>
+        <v>42265</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F85">
         <v>3</v>
       </c>
       <c r="G85">
-        <v>54240</v>
+        <v>10825</v>
       </c>
       <c r="H85">
-        <v>18080</v>
+        <v>3608.333333333333</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J85">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -3901,37 +3901,37 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1">
-        <v>8014</v>
+        <v>8631</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="2">
-        <v>42035</v>
+        <v>42108</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G86">
-        <v>102810</v>
+        <v>72104</v>
       </c>
       <c r="H86">
-        <v>20562</v>
+        <v>4506.5</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -3939,37 +3939,37 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1">
-        <v>8090</v>
+        <v>8632</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="2">
-        <v>42035</v>
+        <v>42108</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G87">
-        <v>102810</v>
+        <v>72104</v>
       </c>
       <c r="H87">
-        <v>102810</v>
+        <v>4506.5</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -3977,37 +3977,37 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1">
-        <v>8117</v>
+        <v>8633</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="2">
-        <v>42035</v>
+        <v>42108</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G88">
-        <v>102810</v>
+        <v>72104</v>
       </c>
       <c r="H88">
-        <v>20562</v>
+        <v>4506.5</v>
       </c>
       <c r="I88">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -4015,37 +4015,37 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1">
-        <v>8212</v>
+        <v>8634</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="2">
-        <v>42344</v>
+        <v>42108</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G89">
-        <v>24450</v>
+        <v>72104</v>
       </c>
       <c r="H89">
-        <v>24450</v>
+        <v>4506.5</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -4053,34 +4053,34 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1">
-        <v>8298</v>
+        <v>8643</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="2">
-        <v>42355</v>
+        <v>42108</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G90">
-        <v>16300</v>
+        <v>72104</v>
       </c>
       <c r="H90">
-        <v>16300</v>
+        <v>4506.5</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J90">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4091,34 +4091,34 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1">
-        <v>8408</v>
+        <v>8644</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="2">
-        <v>42362</v>
+        <v>42108</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G91">
-        <v>67850</v>
+        <v>72104</v>
       </c>
       <c r="H91">
-        <v>22616.66666666667</v>
+        <v>4506.5</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J91">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -4129,34 +4129,34 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1">
-        <v>8409</v>
+        <v>8645</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="2">
-        <v>42362</v>
+        <v>42108</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G92">
-        <v>67850</v>
+        <v>72104</v>
       </c>
       <c r="H92">
-        <v>67850</v>
+        <v>4506.5</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J92">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4167,37 +4167,37 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1">
-        <v>8664</v>
+        <v>8646</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="2">
-        <v>42297</v>
+        <v>42108</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G93">
-        <v>53800</v>
+        <v>72104</v>
       </c>
       <c r="H93">
-        <v>8966.666666666666</v>
+        <v>4506.5</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -4205,37 +4205,37 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1">
-        <v>8665</v>
+        <v>8771</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="2">
-        <v>42297</v>
+        <v>42108</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F94">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G94">
-        <v>53800</v>
+        <v>72104</v>
       </c>
       <c r="H94">
-        <v>8966.666666666666</v>
+        <v>4506.5</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K94">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -4243,34 +4243,34 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1">
-        <v>8754</v>
+        <v>8772</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="2">
-        <v>42297</v>
+        <v>42108</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F95">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G95">
-        <v>53800</v>
+        <v>72104</v>
       </c>
       <c r="H95">
-        <v>8966.666666666666</v>
+        <v>4506.5</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -4281,34 +4281,34 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1">
-        <v>8755</v>
+        <v>8773</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="2">
-        <v>42297</v>
+        <v>42108</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F96">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G96">
-        <v>53800</v>
+        <v>72104</v>
       </c>
       <c r="H96">
-        <v>8966.666666666666</v>
+        <v>4506.5</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -4319,34 +4319,34 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1">
-        <v>8888</v>
+        <v>8774</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="2">
-        <v>42264</v>
+        <v>42108</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G97">
-        <v>52349</v>
+        <v>72104</v>
       </c>
       <c r="H97">
-        <v>10469.8</v>
+        <v>4506.5</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -4357,37 +4357,37 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1">
-        <v>8908</v>
+        <v>8935</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="2">
-        <v>42264</v>
+        <v>42109</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G98">
-        <v>52349</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>52349</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -4395,28 +4395,28 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1">
-        <v>8916</v>
+        <v>8936</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="2">
-        <v>42264</v>
+        <v>42109</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G99">
-        <v>52349</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>10469.8</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4425,45 +4425,45 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L99">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1">
-        <v>8939</v>
+        <v>8937</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="2">
-        <v>42264</v>
+        <v>42109</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F100">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G100">
-        <v>52349</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>10469.8</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -4471,37 +4471,37 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1">
-        <v>9065</v>
+        <v>8938</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="2">
-        <v>42125</v>
+        <v>42109</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F101">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G101">
-        <v>125600</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>10466.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -4509,34 +4509,34 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1">
-        <v>9066</v>
+        <v>9011</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="2">
-        <v>42125</v>
+        <v>42109</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F102">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G102">
-        <v>125600</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>10466.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -4547,110 +4547,110 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1">
-        <v>9163</v>
+        <v>9012</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="2">
-        <v>42125</v>
+        <v>42109</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F103">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G103">
-        <v>125600</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>10466.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="K103">
         <v>0</v>
       </c>
       <c r="L103">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1">
-        <v>9164</v>
+        <v>9013</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="2">
-        <v>42125</v>
+        <v>42109</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F104">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G104">
-        <v>125600</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>10466.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
       <c r="L104">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1">
-        <v>9197</v>
+        <v>9014</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="2">
-        <v>42125</v>
+        <v>42109</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F105">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G105">
-        <v>125600</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>10466.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4661,34 +4661,34 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1">
-        <v>9198</v>
+        <v>9019</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="2">
-        <v>42125</v>
+        <v>42203</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F106">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>125600</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>10466.66666666667</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -4699,37 +4699,37 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1">
-        <v>9341</v>
+        <v>9357</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="2">
-        <v>42265</v>
+        <v>42299</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107">
-        <v>32475</v>
+        <v>13600</v>
       </c>
       <c r="H107">
-        <v>10825</v>
+        <v>6800</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -4737,37 +4737,37 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1">
-        <v>9377</v>
+        <v>9358</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="2">
-        <v>42265</v>
+        <v>42299</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>32475</v>
+        <v>13600</v>
       </c>
       <c r="H108">
-        <v>10825</v>
+        <v>6800</v>
       </c>
       <c r="I108">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -4775,28 +4775,28 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1">
-        <v>9560</v>
+        <v>9498</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="2">
-        <v>42108</v>
+        <v>42300</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F109">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>216312</v>
+        <v>14800</v>
       </c>
       <c r="H109">
-        <v>13519.5</v>
+        <v>7400</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -4813,37 +4813,37 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1">
-        <v>9561</v>
+        <v>9620</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="2">
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F110">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>216312</v>
+        <v>11525</v>
       </c>
       <c r="H110">
-        <v>13519.5</v>
+        <v>5762.5</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K110">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -4851,37 +4851,37 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1">
-        <v>9562</v>
+        <v>9695</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
       </c>
       <c r="C111" s="2">
-        <v>42108</v>
+        <v>42127</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F111">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>216312</v>
+        <v>15500</v>
       </c>
       <c r="H111">
-        <v>13519.5</v>
+        <v>7750</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -4889,37 +4889,37 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1">
-        <v>9563</v>
+        <v>9709</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="2">
-        <v>42108</v>
+        <v>42127</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F112">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G112">
-        <v>216312</v>
+        <v>15500</v>
       </c>
       <c r="H112">
-        <v>13519.5</v>
+        <v>7750</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -4927,31 +4927,31 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1">
-        <v>9572</v>
+        <v>9759</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="2">
-        <v>42108</v>
+        <v>42128</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F113">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G113">
-        <v>216312</v>
+        <v>20375</v>
       </c>
       <c r="H113">
-        <v>13519.5</v>
+        <v>6791.666666666667</v>
       </c>
       <c r="I113">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -4965,34 +4965,34 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1">
-        <v>9573</v>
+        <v>9778</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
       </c>
       <c r="C114" s="2">
-        <v>42108</v>
+        <v>42128</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F114">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G114">
-        <v>216312</v>
+        <v>20375</v>
       </c>
       <c r="H114">
-        <v>13519.5</v>
+        <v>6791.666666666667</v>
       </c>
       <c r="I114">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5003,31 +5003,31 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1">
-        <v>9574</v>
+        <v>9891</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
       </c>
       <c r="C115" s="2">
-        <v>42108</v>
+        <v>42144</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F115">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>216312</v>
+        <v>6800</v>
       </c>
       <c r="H115">
-        <v>13519.5</v>
+        <v>6800</v>
       </c>
       <c r="I115">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -5041,31 +5041,31 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1">
-        <v>9575</v>
+        <v>9930</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
       </c>
       <c r="C116" s="2">
-        <v>42108</v>
+        <v>42170</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F116">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>216312</v>
+        <v>8075</v>
       </c>
       <c r="H116">
-        <v>13519.5</v>
+        <v>8075</v>
       </c>
       <c r="I116">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -5074,115 +5074,115 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1">
-        <v>9716</v>
+        <v>10177</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
       </c>
       <c r="C117" s="2">
-        <v>42108</v>
+        <v>42213</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F117">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G117">
-        <v>216312</v>
+        <v>49148</v>
       </c>
       <c r="H117">
-        <v>13519.5</v>
+        <v>6143.5</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>0</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1">
-        <v>9717</v>
+        <v>10178</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="2">
-        <v>42108</v>
+        <v>42213</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F118">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G118">
-        <v>216312</v>
+        <v>49148</v>
       </c>
       <c r="H118">
-        <v>13519.5</v>
+        <v>6143.5</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>0</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1">
-        <v>9718</v>
+        <v>10185</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="2">
-        <v>42108</v>
+        <v>42213</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F119">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G119">
-        <v>216312</v>
+        <v>49148</v>
       </c>
       <c r="H119">
-        <v>13519.5</v>
+        <v>6143.5</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5193,34 +5193,34 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1">
-        <v>9719</v>
+        <v>10186</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>42108</v>
+        <v>42213</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F120">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G120">
-        <v>216312</v>
+        <v>49148</v>
       </c>
       <c r="H120">
-        <v>13519.5</v>
+        <v>6143.5</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -5231,37 +5231,37 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1">
-        <v>9888</v>
+        <v>10223</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="2">
-        <v>42109</v>
+        <v>42215</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F121">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>17250</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3450</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K121">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -5269,37 +5269,37 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1">
-        <v>9889</v>
+        <v>10257</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="2">
-        <v>42109</v>
+        <v>42215</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F122">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>17250</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3450</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -5307,28 +5307,28 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1">
-        <v>9890</v>
+        <v>10409</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
       </c>
       <c r="C123" s="2">
-        <v>42109</v>
+        <v>42233</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F123">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>18749</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>6249.666666666667</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -5337,45 +5337,45 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1">
-        <v>9891</v>
+        <v>10426</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
       </c>
       <c r="C124" s="2">
-        <v>42109</v>
+        <v>42233</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F124">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>18749</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>6249.666666666667</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K124">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -5383,72 +5383,72 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1">
-        <v>9976</v>
+        <v>10493</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="2">
-        <v>42109</v>
+        <v>42234</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F125">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>41061.5</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>5865.928571428572</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1">
-        <v>9977</v>
+        <v>10498</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="2">
-        <v>42109</v>
+        <v>42234</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F126">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>41061.5</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>5865.928571428572</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -5459,34 +5459,34 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1">
-        <v>9978</v>
+        <v>10600</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="2">
-        <v>42109</v>
+        <v>42235</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F127">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>39200.5</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>5600.071428571428</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -5497,72 +5497,72 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1">
-        <v>9979</v>
+        <v>10641</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="2">
-        <v>42109</v>
+        <v>42235</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>39200.5</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>5600.071428571428</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="1">
-        <v>9984</v>
+        <v>10742</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="2">
-        <v>42203</v>
+        <v>42243</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>21950</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>5487.5</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -5573,37 +5573,37 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="1">
-        <v>10354</v>
+        <v>10752</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="2">
-        <v>42299</v>
+        <v>42243</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G130">
-        <v>13600</v>
+        <v>21950</v>
       </c>
       <c r="H130">
-        <v>6800</v>
+        <v>5487.5</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -5611,28 +5611,28 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1">
-        <v>10355</v>
+        <v>10769</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
       </c>
       <c r="C131" s="2">
-        <v>42299</v>
+        <v>42243</v>
       </c>
       <c r="D131" t="s">
         <v>14</v>
       </c>
       <c r="E131" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G131">
-        <v>13600</v>
+        <v>21950</v>
       </c>
       <c r="H131">
-        <v>6800</v>
+        <v>5487.5</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -5649,37 +5649,37 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1">
-        <v>10513</v>
+        <v>10838</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
       </c>
       <c r="C132" s="2">
-        <v>42300</v>
+        <v>42244</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G132">
-        <v>29600</v>
+        <v>21950</v>
       </c>
       <c r="H132">
-        <v>14800</v>
+        <v>5487.5</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K132">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -5687,34 +5687,34 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1">
-        <v>10653</v>
+        <v>10848</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
       </c>
       <c r="C133" s="2">
-        <v>42114</v>
+        <v>42244</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G133">
-        <v>23050</v>
+        <v>21950</v>
       </c>
       <c r="H133">
-        <v>11525</v>
+        <v>5487.5</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J133">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -5725,37 +5725,37 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1">
-        <v>10736</v>
+        <v>10862</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
       </c>
       <c r="C134" s="2">
-        <v>42127</v>
+        <v>42244</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G134">
-        <v>31000</v>
+        <v>21950</v>
       </c>
       <c r="H134">
-        <v>15500</v>
+        <v>5487.5</v>
       </c>
       <c r="I134">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L134">
         <v>0</v>
@@ -5763,34 +5763,34 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1">
-        <v>10752</v>
+        <v>10946</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
       </c>
       <c r="C135" s="2">
-        <v>42127</v>
+        <v>42245</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F135">
         <v>2</v>
       </c>
       <c r="G135">
-        <v>31000</v>
+        <v>6800</v>
       </c>
       <c r="H135">
-        <v>15500</v>
+        <v>3400</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J135">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -5801,34 +5801,34 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1">
-        <v>10804</v>
+        <v>11129</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
       </c>
       <c r="C136" s="2">
-        <v>42128</v>
+        <v>42268</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G136">
-        <v>40750</v>
+        <v>6000</v>
       </c>
       <c r="H136">
-        <v>13583.33333333333</v>
+        <v>6000</v>
       </c>
       <c r="I136">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -5839,34 +5839,34 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1">
-        <v>10825</v>
+        <v>11259</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
       </c>
       <c r="C137" s="2">
-        <v>42128</v>
+        <v>42270</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G137">
-        <v>40750</v>
+        <v>4875</v>
       </c>
       <c r="H137">
-        <v>13583.33333333333</v>
+        <v>4875</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
       <c r="J137">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -5877,31 +5877,31 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1">
-        <v>10943</v>
+        <v>11362</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
       </c>
       <c r="C138" s="2">
-        <v>42144</v>
+        <v>42271</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G138">
-        <v>13600</v>
+        <v>16947</v>
       </c>
       <c r="H138">
-        <v>13600</v>
+        <v>5649</v>
       </c>
       <c r="I138">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -5915,28 +5915,28 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1">
-        <v>10986</v>
+        <v>11368</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
       </c>
       <c r="C139" s="2">
-        <v>42170</v>
+        <v>42271</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G139">
-        <v>16150</v>
+        <v>16947</v>
       </c>
       <c r="H139">
-        <v>16150</v>
+        <v>5649</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -5948,74 +5948,74 @@
         <v>0</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1">
-        <v>11269</v>
+        <v>11388</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
       </c>
       <c r="C140" s="2">
-        <v>42213</v>
+        <v>42271</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G140">
-        <v>74048</v>
+        <v>16947</v>
       </c>
       <c r="H140">
-        <v>18512</v>
+        <v>5649</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K140">
         <v>0</v>
       </c>
       <c r="L140">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1">
-        <v>11270</v>
+        <v>11459</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
       </c>
       <c r="C141" s="2">
-        <v>42213</v>
+        <v>42272</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G141">
-        <v>74048</v>
+        <v>17072</v>
       </c>
       <c r="H141">
-        <v>18512</v>
+        <v>3414.4</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -6024,77 +6024,77 @@
         <v>0</v>
       </c>
       <c r="L141">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1">
-        <v>11277</v>
+        <v>11463</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
       </c>
       <c r="C142" s="2">
-        <v>42213</v>
+        <v>42272</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G142">
-        <v>74048</v>
+        <v>17072</v>
       </c>
       <c r="H142">
-        <v>18512</v>
+        <v>3414.4</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="K142">
         <v>0</v>
       </c>
       <c r="L142">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="1">
-        <v>11278</v>
+        <v>11521</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
       </c>
       <c r="C143" s="2">
-        <v>42213</v>
+        <v>42272</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G143">
-        <v>74048</v>
+        <v>17072</v>
       </c>
       <c r="H143">
-        <v>18512</v>
+        <v>3414.4</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -6105,37 +6105,37 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="1">
-        <v>11325</v>
+        <v>11765</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
       </c>
       <c r="C144" s="2">
-        <v>42215</v>
+        <v>42298</v>
       </c>
       <c r="D144" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F144">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G144">
-        <v>25500</v>
+        <v>26900</v>
       </c>
       <c r="H144">
-        <v>8500</v>
+        <v>4483.333333333333</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L144">
         <v>0</v>
@@ -6143,37 +6143,37 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1">
-        <v>11326</v>
+        <v>11766</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
       </c>
       <c r="C145" s="2">
-        <v>42215</v>
+        <v>42298</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F145">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G145">
-        <v>25500</v>
+        <v>26900</v>
       </c>
       <c r="H145">
-        <v>12750</v>
+        <v>4483.333333333333</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L145">
         <v>0</v>
@@ -6181,34 +6181,34 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="1">
-        <v>11366</v>
+        <v>11913</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
       </c>
       <c r="C146" s="2">
-        <v>42215</v>
+        <v>42298</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F146">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G146">
-        <v>25500</v>
+        <v>26900</v>
       </c>
       <c r="H146">
-        <v>8500</v>
+        <v>4483.333333333333</v>
       </c>
       <c r="I146">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -6219,75 +6219,75 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1">
-        <v>11536</v>
+        <v>11914</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
       </c>
       <c r="C147" s="2">
-        <v>42233</v>
+        <v>42298</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F147">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G147">
-        <v>30373</v>
+        <v>26900</v>
       </c>
       <c r="H147">
-        <v>10124.33333333333</v>
+        <v>4483.333333333333</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="K147">
         <v>0</v>
       </c>
       <c r="L147">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1">
-        <v>11555</v>
+        <v>12033</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
       </c>
       <c r="C148" s="2">
-        <v>42233</v>
+        <v>42301</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E148" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F148">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G148">
-        <v>30373</v>
+        <v>93762</v>
       </c>
       <c r="H148">
-        <v>10124.33333333333</v>
+        <v>7813.5</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L148">
         <v>0</v>
@@ -6295,28 +6295,28 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1">
-        <v>11628</v>
+        <v>12034</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
       </c>
       <c r="C149" s="2">
-        <v>42234</v>
+        <v>42301</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F149">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G149">
-        <v>74998</v>
+        <v>93762</v>
       </c>
       <c r="H149">
-        <v>12499.66666666667</v>
+        <v>7813.5</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -6325,118 +6325,118 @@
         <v>0</v>
       </c>
       <c r="K149">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L149">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1">
-        <v>11634</v>
+        <v>12171</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
       </c>
       <c r="C150" s="2">
-        <v>42234</v>
+        <v>42301</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F150">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G150">
-        <v>74998</v>
+        <v>93762</v>
       </c>
       <c r="H150">
-        <v>12499.66666666667</v>
+        <v>7813.5</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K150">
         <v>0</v>
       </c>
       <c r="L150">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1">
-        <v>11687</v>
+        <v>12172</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
       </c>
       <c r="C151" s="2">
-        <v>42234</v>
+        <v>42301</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G151">
-        <v>74998</v>
+        <v>93762</v>
       </c>
       <c r="H151">
-        <v>74998</v>
+        <v>7813.5</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>0</v>
       </c>
       <c r="L151">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1">
-        <v>11745</v>
+        <v>12189</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
       </c>
       <c r="C152" s="2">
-        <v>42235</v>
+        <v>42301</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F152">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G152">
-        <v>65638</v>
+        <v>93762</v>
       </c>
       <c r="H152">
-        <v>13127.6</v>
+        <v>7813.5</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -6447,110 +6447,110 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1">
-        <v>11791</v>
+        <v>12190</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
       </c>
       <c r="C153" s="2">
-        <v>42235</v>
+        <v>42301</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G153">
-        <v>65638</v>
+        <v>93762</v>
       </c>
       <c r="H153">
-        <v>32819</v>
+        <v>7813.5</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="K153">
         <v>0</v>
       </c>
       <c r="L153">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="1">
-        <v>11800</v>
+        <v>12304</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
       </c>
       <c r="C154" s="2">
-        <v>42235</v>
+        <v>42302</v>
       </c>
       <c r="D154" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E154" t="s">
         <v>36</v>
       </c>
       <c r="F154">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G154">
-        <v>65638</v>
+        <v>21975</v>
       </c>
       <c r="H154">
-        <v>13127.6</v>
+        <v>7325</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K154">
         <v>0</v>
       </c>
       <c r="L154">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1">
-        <v>11818</v>
+        <v>12365</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
       </c>
       <c r="C155" s="2">
-        <v>42235</v>
+        <v>42309</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="F155">
         <v>2</v>
       </c>
       <c r="G155">
-        <v>65638</v>
+        <v>24450</v>
       </c>
       <c r="H155">
-        <v>32819</v>
+        <v>12225</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
       <c r="J155">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -6561,1217 +6561,39 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1">
-        <v>11898</v>
+        <v>12366</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
       </c>
       <c r="C156" s="2">
-        <v>42243</v>
+        <v>42309</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G156">
-        <v>50700</v>
+        <v>24450</v>
       </c>
       <c r="H156">
-        <v>12675</v>
+        <v>12225</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K156">
         <v>0</v>
       </c>
       <c r="L156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="A157" s="1">
-        <v>11909</v>
-      </c>
-      <c r="B157" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="2">
-        <v>42243</v>
-      </c>
-      <c r="D157" t="s">
-        <v>13</v>
-      </c>
-      <c r="E157" t="s">
-        <v>85</v>
-      </c>
-      <c r="F157">
-        <v>4</v>
-      </c>
-      <c r="G157">
-        <v>50700</v>
-      </c>
-      <c r="H157">
-        <v>12675</v>
-      </c>
-      <c r="I157">
-        <v>47</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="A158" s="1">
-        <v>11926</v>
-      </c>
-      <c r="B158" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" s="2">
-        <v>42243</v>
-      </c>
-      <c r="D158" t="s">
-        <v>14</v>
-      </c>
-      <c r="E158" t="s">
-        <v>85</v>
-      </c>
-      <c r="F158">
-        <v>4</v>
-      </c>
-      <c r="G158">
-        <v>50700</v>
-      </c>
-      <c r="H158">
-        <v>12675</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158">
-        <v>13</v>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="A159" s="1">
-        <v>11997</v>
-      </c>
-      <c r="B159" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="2">
-        <v>42244</v>
-      </c>
-      <c r="D159" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159" t="s">
-        <v>86</v>
-      </c>
-      <c r="F159">
-        <v>4</v>
-      </c>
-      <c r="G159">
-        <v>50700</v>
-      </c>
-      <c r="H159">
-        <v>12675</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>66</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
-      <c r="A160" s="1">
-        <v>12008</v>
-      </c>
-      <c r="B160" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="2">
-        <v>42244</v>
-      </c>
-      <c r="D160" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160" t="s">
-        <v>86</v>
-      </c>
-      <c r="F160">
-        <v>4</v>
-      </c>
-      <c r="G160">
-        <v>50700</v>
-      </c>
-      <c r="H160">
-        <v>12675</v>
-      </c>
-      <c r="I160">
-        <v>42</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
-      <c r="A161" s="1">
-        <v>12022</v>
-      </c>
-      <c r="B161" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" s="2">
-        <v>42244</v>
-      </c>
-      <c r="D161" t="s">
-        <v>14</v>
-      </c>
-      <c r="E161" t="s">
-        <v>86</v>
-      </c>
-      <c r="F161">
-        <v>4</v>
-      </c>
-      <c r="G161">
-        <v>50700</v>
-      </c>
-      <c r="H161">
-        <v>12675</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161">
-        <v>13</v>
-      </c>
-      <c r="L161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
-      <c r="A162" s="1">
-        <v>12113</v>
-      </c>
-      <c r="B162" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="2">
-        <v>42245</v>
-      </c>
-      <c r="D162" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162" t="s">
-        <v>87</v>
-      </c>
-      <c r="F162">
-        <v>2</v>
-      </c>
-      <c r="G162">
-        <v>20400</v>
-      </c>
-      <c r="H162">
-        <v>10200</v>
-      </c>
-      <c r="I162">
-        <v>37</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
-      <c r="A163" s="1">
-        <v>12309</v>
-      </c>
-      <c r="B163" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="2">
-        <v>42268</v>
-      </c>
-      <c r="D163" t="s">
-        <v>12</v>
-      </c>
-      <c r="E163" t="s">
-        <v>88</v>
-      </c>
-      <c r="F163">
-        <v>1</v>
-      </c>
-      <c r="G163">
-        <v>12000</v>
-      </c>
-      <c r="H163">
-        <v>12000</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <v>77</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" s="1">
-        <v>12451</v>
-      </c>
-      <c r="B164" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="2">
-        <v>42270</v>
-      </c>
-      <c r="D164" t="s">
-        <v>12</v>
-      </c>
-      <c r="E164" t="s">
-        <v>89</v>
-      </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>9750</v>
-      </c>
-      <c r="H164">
-        <v>9750</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>95</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" s="1">
-        <v>12560</v>
-      </c>
-      <c r="B165" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="2">
-        <v>42271</v>
-      </c>
-      <c r="D165" t="s">
-        <v>13</v>
-      </c>
-      <c r="E165" t="s">
-        <v>90</v>
-      </c>
-      <c r="F165">
-        <v>3</v>
-      </c>
-      <c r="G165">
-        <v>33894</v>
-      </c>
-      <c r="H165">
-        <v>11298</v>
-      </c>
-      <c r="I165">
-        <v>28</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" s="1">
-        <v>12567</v>
-      </c>
-      <c r="B166" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" s="2">
-        <v>42271</v>
-      </c>
-      <c r="D166" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166" t="s">
-        <v>90</v>
-      </c>
-      <c r="F166">
-        <v>3</v>
-      </c>
-      <c r="G166">
-        <v>33894</v>
-      </c>
-      <c r="H166">
-        <v>11298</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" s="1">
-        <v>12591</v>
-      </c>
-      <c r="B167" t="s">
-        <v>11</v>
-      </c>
-      <c r="C167" s="2">
-        <v>42271</v>
-      </c>
-      <c r="D167" t="s">
-        <v>12</v>
-      </c>
-      <c r="E167" t="s">
-        <v>90</v>
-      </c>
-      <c r="F167">
-        <v>3</v>
-      </c>
-      <c r="G167">
-        <v>33894</v>
-      </c>
-      <c r="H167">
-        <v>11298</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>80</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="1">
-        <v>12664</v>
-      </c>
-      <c r="B168" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" s="2">
-        <v>42272</v>
-      </c>
-      <c r="D168" t="s">
-        <v>13</v>
-      </c>
-      <c r="E168" t="s">
-        <v>90</v>
-      </c>
-      <c r="F168">
-        <v>4</v>
-      </c>
-      <c r="G168">
-        <v>29144</v>
-      </c>
-      <c r="H168">
-        <v>7286</v>
-      </c>
-      <c r="I168">
-        <v>31</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="1">
-        <v>12669</v>
-      </c>
-      <c r="B169" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="2">
-        <v>42272</v>
-      </c>
-      <c r="D169" t="s">
-        <v>15</v>
-      </c>
-      <c r="E169" t="s">
-        <v>90</v>
-      </c>
-      <c r="F169">
-        <v>4</v>
-      </c>
-      <c r="G169">
-        <v>29144</v>
-      </c>
-      <c r="H169">
-        <v>7286</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
-      <c r="A170" s="1">
-        <v>12732</v>
-      </c>
-      <c r="B170" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" s="2">
-        <v>42272</v>
-      </c>
-      <c r="D170" t="s">
-        <v>12</v>
-      </c>
-      <c r="E170" t="s">
-        <v>90</v>
-      </c>
-      <c r="F170">
-        <v>4</v>
-      </c>
-      <c r="G170">
-        <v>29144</v>
-      </c>
-      <c r="H170">
-        <v>7286</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>77</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
-      <c r="L170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
-      <c r="A171" s="1">
-        <v>12733</v>
-      </c>
-      <c r="B171" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" s="2">
-        <v>42272</v>
-      </c>
-      <c r="D171" t="s">
-        <v>12</v>
-      </c>
-      <c r="E171" t="s">
-        <v>90</v>
-      </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
-      <c r="G171">
-        <v>29144</v>
-      </c>
-      <c r="H171">
-        <v>29144</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>77</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" s="1">
-        <v>12986</v>
-      </c>
-      <c r="B172" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" s="2">
-        <v>42298</v>
-      </c>
-      <c r="D172" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" t="s">
-        <v>91</v>
-      </c>
-      <c r="F172">
-        <v>6</v>
-      </c>
-      <c r="G172">
-        <v>53800</v>
-      </c>
-      <c r="H172">
-        <v>8966.666666666666</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>22</v>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
-      <c r="A173" s="1">
-        <v>12987</v>
-      </c>
-      <c r="B173" t="s">
-        <v>11</v>
-      </c>
-      <c r="C173" s="2">
-        <v>42298</v>
-      </c>
-      <c r="D173" t="s">
-        <v>14</v>
-      </c>
-      <c r="E173" t="s">
-        <v>92</v>
-      </c>
-      <c r="F173">
-        <v>6</v>
-      </c>
-      <c r="G173">
-        <v>53800</v>
-      </c>
-      <c r="H173">
-        <v>8966.666666666666</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <v>22</v>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="A174" s="1">
-        <v>13162</v>
-      </c>
-      <c r="B174" t="s">
-        <v>11</v>
-      </c>
-      <c r="C174" s="2">
-        <v>42298</v>
-      </c>
-      <c r="D174" t="s">
-        <v>12</v>
-      </c>
-      <c r="E174" t="s">
-        <v>91</v>
-      </c>
-      <c r="F174">
-        <v>6</v>
-      </c>
-      <c r="G174">
-        <v>53800</v>
-      </c>
-      <c r="H174">
-        <v>8966.666666666666</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174">
-        <v>142</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="A175" s="1">
-        <v>13163</v>
-      </c>
-      <c r="B175" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175" s="2">
-        <v>42298</v>
-      </c>
-      <c r="D175" t="s">
-        <v>12</v>
-      </c>
-      <c r="E175" t="s">
-        <v>92</v>
-      </c>
-      <c r="F175">
-        <v>6</v>
-      </c>
-      <c r="G175">
-        <v>53800</v>
-      </c>
-      <c r="H175">
-        <v>8966.666666666666</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175">
-        <v>142</v>
-      </c>
-      <c r="K175">
-        <v>0</v>
-      </c>
-      <c r="L175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
-      <c r="A176" s="1">
-        <v>13292</v>
-      </c>
-      <c r="B176" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D176" t="s">
-        <v>14</v>
-      </c>
-      <c r="E176" t="s">
-        <v>93</v>
-      </c>
-      <c r="F176">
-        <v>10</v>
-      </c>
-      <c r="G176">
-        <v>167312</v>
-      </c>
-      <c r="H176">
-        <v>16731.2</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176">
-        <v>36</v>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
-      <c r="A177" s="1">
-        <v>13293</v>
-      </c>
-      <c r="B177" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D177" t="s">
-        <v>14</v>
-      </c>
-      <c r="E177" t="s">
-        <v>94</v>
-      </c>
-      <c r="F177">
-        <v>10</v>
-      </c>
-      <c r="G177">
-        <v>167312</v>
-      </c>
-      <c r="H177">
-        <v>16731.2</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177">
-        <v>36</v>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
-      <c r="A178" s="1">
-        <v>13458</v>
-      </c>
-      <c r="B178" t="s">
-        <v>11</v>
-      </c>
-      <c r="C178" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D178" t="s">
-        <v>15</v>
-      </c>
-      <c r="E178" t="s">
-        <v>93</v>
-      </c>
-      <c r="F178">
-        <v>10</v>
-      </c>
-      <c r="G178">
-        <v>167312</v>
-      </c>
-      <c r="H178">
-        <v>16731.2</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-      <c r="L178">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
-      <c r="A179" s="1">
-        <v>13459</v>
-      </c>
-      <c r="B179" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D179" t="s">
-        <v>15</v>
-      </c>
-      <c r="E179" t="s">
-        <v>94</v>
-      </c>
-      <c r="F179">
-        <v>10</v>
-      </c>
-      <c r="G179">
-        <v>167312</v>
-      </c>
-      <c r="H179">
-        <v>16731.2</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
-        <v>0</v>
-      </c>
-      <c r="L179">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12">
-      <c r="A180" s="1">
-        <v>13478</v>
-      </c>
-      <c r="B180" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D180" t="s">
-        <v>12</v>
-      </c>
-      <c r="E180" t="s">
-        <v>93</v>
-      </c>
-      <c r="F180">
-        <v>10</v>
-      </c>
-      <c r="G180">
-        <v>167312</v>
-      </c>
-      <c r="H180">
-        <v>16731.2</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180">
-        <v>138</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
-      <c r="A181" s="1">
-        <v>13479</v>
-      </c>
-      <c r="B181" t="s">
-        <v>11</v>
-      </c>
-      <c r="C181" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D181" t="s">
-        <v>12</v>
-      </c>
-      <c r="E181" t="s">
-        <v>94</v>
-      </c>
-      <c r="F181">
-        <v>10</v>
-      </c>
-      <c r="G181">
-        <v>167312</v>
-      </c>
-      <c r="H181">
-        <v>16731.2</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181">
-        <v>138</v>
-      </c>
-      <c r="K181">
-        <v>0</v>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
-      <c r="A182" s="1">
-        <v>13486</v>
-      </c>
-      <c r="B182" t="s">
-        <v>11</v>
-      </c>
-      <c r="C182" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D182" t="s">
-        <v>12</v>
-      </c>
-      <c r="E182" t="s">
-        <v>93</v>
-      </c>
-      <c r="F182">
-        <v>2</v>
-      </c>
-      <c r="G182">
-        <v>167312</v>
-      </c>
-      <c r="H182">
-        <v>83656</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="J182">
-        <v>138</v>
-      </c>
-      <c r="K182">
-        <v>0</v>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
-      <c r="A183" s="1">
-        <v>13487</v>
-      </c>
-      <c r="B183" t="s">
-        <v>11</v>
-      </c>
-      <c r="C183" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D183" t="s">
-        <v>12</v>
-      </c>
-      <c r="E183" t="s">
-        <v>94</v>
-      </c>
-      <c r="F183">
-        <v>2</v>
-      </c>
-      <c r="G183">
-        <v>167312</v>
-      </c>
-      <c r="H183">
-        <v>83656</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183">
-        <v>138</v>
-      </c>
-      <c r="K183">
-        <v>0</v>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
-      <c r="A184" s="1">
-        <v>13607</v>
-      </c>
-      <c r="B184" t="s">
-        <v>11</v>
-      </c>
-      <c r="C184" s="2">
-        <v>42302</v>
-      </c>
-      <c r="D184" t="s">
-        <v>12</v>
-      </c>
-      <c r="E184" t="s">
-        <v>36</v>
-      </c>
-      <c r="F184">
-        <v>2</v>
-      </c>
-      <c r="G184">
-        <v>43950</v>
-      </c>
-      <c r="H184">
-        <v>21975</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184">
-        <v>64</v>
-      </c>
-      <c r="K184">
-        <v>0</v>
-      </c>
-      <c r="L184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
-      <c r="A185" s="1">
-        <v>13612</v>
-      </c>
-      <c r="B185" t="s">
-        <v>11</v>
-      </c>
-      <c r="C185" s="2">
-        <v>42302</v>
-      </c>
-      <c r="D185" t="s">
-        <v>12</v>
-      </c>
-      <c r="E185" t="s">
-        <v>36</v>
-      </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <v>43950</v>
-      </c>
-      <c r="H185">
-        <v>43950</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>64</v>
-      </c>
-      <c r="K185">
-        <v>0</v>
-      </c>
-      <c r="L185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12">
-      <c r="A186" s="1">
-        <v>13672</v>
-      </c>
-      <c r="B186" t="s">
-        <v>11</v>
-      </c>
-      <c r="C186" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D186" t="s">
-        <v>12</v>
-      </c>
-      <c r="E186" t="s">
-        <v>95</v>
-      </c>
-      <c r="F186">
-        <v>2</v>
-      </c>
-      <c r="G186">
-        <v>24450</v>
-      </c>
-      <c r="H186">
-        <v>12225</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>124</v>
-      </c>
-      <c r="K186">
-        <v>0</v>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
-      <c r="A187" s="1">
-        <v>13673</v>
-      </c>
-      <c r="B187" t="s">
-        <v>11</v>
-      </c>
-      <c r="C187" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D187" t="s">
-        <v>12</v>
-      </c>
-      <c r="E187" t="s">
-        <v>96</v>
-      </c>
-      <c r="F187">
-        <v>2</v>
-      </c>
-      <c r="G187">
-        <v>24450</v>
-      </c>
-      <c r="H187">
-        <v>12225</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187">
-        <v>124</v>
-      </c>
-      <c r="K187">
-        <v>0</v>
-      </c>
-      <c r="L187">
         <v>0</v>
       </c>
     </row>
